--- a/hive/hive commands.xlsx
+++ b/hive/hive commands.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shashankjain/Desktop/Imp_notes/Summary_notes/hive/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26A00F7-5AA8-D14C-AE9B-2198BB664CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BA12F8-7F1D-5A41-9081-8B3FF6632F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{C3C9EFE9-7086-8042-B06A-56F392C46EE9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{C3C9EFE9-7086-8042-B06A-56F392C46EE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Practical Queries" sheetId="1" r:id="rId1"/>
@@ -6664,7 +6664,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6952,7 +6952,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6965,8 +6965,8 @@
   </sheetPr>
   <dimension ref="A1:B115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
